--- a/Dentist/Files/FILL IN OPTIONS.xlsx
+++ b/Dentist/Files/FILL IN OPTIONS.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="106">
   <si>
     <t>AREA LIST</t>
   </si>
@@ -118,9 +118,6 @@
     <t xml:space="preserve">עקירה </t>
   </si>
   <si>
-    <t xml:space="preserve">עקירת שן בינה </t>
-  </si>
-  <si>
     <t>עקירה כירורגית שן בינה</t>
   </si>
   <si>
@@ -130,9 +127,6 @@
     <t xml:space="preserve">עקירת N שתלים </t>
   </si>
   <si>
-    <t>N עקירות</t>
-  </si>
-  <si>
     <t>שתל מבנה וכתר חרסינה</t>
   </si>
   <si>
@@ -253,9 +247,6 @@
     <t>ALIGNERS</t>
   </si>
   <si>
-    <t>יישור שיניים באמצעות קשתיות שקופות משך הטיפול כ-T חודשים</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
@@ -271,9 +262,6 @@
     <t xml:space="preserve">חודשיים </t>
   </si>
   <si>
-    <t xml:space="preserve">מעקב בעודT1 </t>
-  </si>
-  <si>
     <t>חודש</t>
   </si>
   <si>
@@ -295,9 +283,6 @@
     <t>הרמת סינוס ותוספת עצם</t>
   </si>
   <si>
-    <t>לאחר T1</t>
-  </si>
-  <si>
     <t>בהמשך</t>
   </si>
   <si>
@@ -310,17 +295,71 @@
     <t>TOOTH NO.</t>
   </si>
   <si>
-    <t xml:space="preserve">שן N </t>
-  </si>
-  <si>
     <t>requirements LIST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">מעקב בעודP1 </t>
+  </si>
+  <si>
+    <t>לאחר P1</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>11-18 OR 21-28 OR 31-38 OR 41-48</t>
+  </si>
+  <si>
+    <t>Tooth Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price - every treatment has a price </t>
+  </si>
+  <si>
+    <t>number - replace N1</t>
+  </si>
+  <si>
+    <t>PERIOD - REPLACE P1</t>
+  </si>
+  <si>
+    <t>N1 עקירות</t>
+  </si>
+  <si>
+    <t xml:space="preserve">שן T1 </t>
+  </si>
+  <si>
+    <t>TREATMENT PRICE</t>
+  </si>
+  <si>
+    <t>עקירת שן בינה תחתונה</t>
+  </si>
+  <si>
+    <t>עקירת שן בינה עליונה</t>
+  </si>
+  <si>
+    <t>תוספת לכתר זירקוניה מחיר ליחידה</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-8 שתלים מבנים וגשר כתרי חרסינה 12-14 יחידות </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-6 שתלים מבנים וגשר כתרי חרסינה 12 יחידות </t>
+  </si>
+  <si>
+    <t xml:space="preserve">תותבת חלקית נשלפת </t>
+  </si>
+  <si>
+    <t>יישור שיניים באמצעות קשתיות שקופות משך הטיפול כ-T חודשים לסת אחת</t>
+  </si>
+  <si>
+    <t xml:space="preserve">יישור שיניים באמצעות קשתיות שקופות משך הטיפול כ-T חודשים  2 לסתות </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,16 +374,40 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.6"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF111827"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7F7F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -352,14 +415,129 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" readingOrder="2"/>
@@ -368,6 +546,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -648,199 +847,229 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M38"/>
+  <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.09765625" customWidth="1"/>
+    <col min="1" max="1" width="13.8984375" customWidth="1"/>
     <col min="2" max="2" width="18.09765625" customWidth="1"/>
-    <col min="3" max="3" width="26.8984375" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="29.59765625" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" customWidth="1"/>
     <col min="6" max="6" width="26.19921875" customWidth="1"/>
-    <col min="7" max="7" width="14.59765625" customWidth="1"/>
+    <col min="7" max="8" width="14.59765625" customWidth="1"/>
+    <col min="16" max="19" width="5.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C1" t="s">
-        <v>53</v>
+      <c r="B1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E1" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="N1" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="L2" t="s">
+        <v>94</v>
+      </c>
+      <c r="M2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N2" t="s">
+        <v>90</v>
+      </c>
+      <c r="P2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P7" s="6"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F8" t="s">
         <v>14</v>
@@ -848,43 +1077,58 @@
       <c r="G8" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>550</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="F9" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>600</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L9" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="F10" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="H11">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
         <v>20</v>
@@ -892,155 +1136,383 @@
       <c r="G12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F14" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>1200</v>
+      </c>
+      <c r="R14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F15" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>1800</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="12"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
         <v>26</v>
       </c>
       <c r="G16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16">
+        <v>600</v>
+      </c>
+      <c r="P16" s="7">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="7">
+        <v>21</v>
+      </c>
+      <c r="R16" s="7">
+        <v>31</v>
+      </c>
+      <c r="S16" s="7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F17" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17">
+        <v>1000</v>
+      </c>
+      <c r="P17" s="8">
+        <v>12</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>22</v>
+      </c>
+      <c r="R17" s="8">
+        <v>32</v>
+      </c>
+      <c r="S17" s="8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18">
+        <v>900</v>
+      </c>
+      <c r="P18" s="8">
+        <v>13</v>
+      </c>
+      <c r="Q18" s="8">
+        <v>23</v>
+      </c>
+      <c r="R18" s="8">
+        <v>33</v>
+      </c>
+      <c r="S18" s="8">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19">
+        <v>700</v>
+      </c>
+      <c r="P19" s="8">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>24</v>
+      </c>
+      <c r="R19" s="8">
+        <v>34</v>
+      </c>
+      <c r="S19" s="8">
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F17" s="2" t="s">
+    <row r="20" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20">
+        <v>1200</v>
+      </c>
+      <c r="P20" s="8">
+        <v>15</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>25</v>
+      </c>
+      <c r="R20" s="8">
+        <v>35</v>
+      </c>
+      <c r="S20" s="8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21">
+        <v>800</v>
+      </c>
+      <c r="P21" s="8">
+        <v>16</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>26</v>
+      </c>
+      <c r="R21" s="8">
+        <v>36</v>
+      </c>
+      <c r="S21" s="8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22">
+        <v>1500</v>
+      </c>
+      <c r="P22" s="8">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>27</v>
+      </c>
+      <c r="R22" s="8">
+        <v>37</v>
+      </c>
+      <c r="S22" s="8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="6:19" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23">
+        <v>2500</v>
+      </c>
+      <c r="P23" s="9">
+        <v>18</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>28</v>
+      </c>
+      <c r="R23" s="9">
+        <v>38</v>
+      </c>
+      <c r="S23" s="9">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>62</v>
+      </c>
+      <c r="G25" t="s">
+        <v>61</v>
+      </c>
+      <c r="H25">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="26" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>63</v>
+      </c>
+      <c r="H26">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="27" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>64</v>
+      </c>
+      <c r="H27">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="28" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="29" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="30" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="31" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>100</v>
+      </c>
+      <c r="H31">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="32" spans="6:19" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>30</v>
+      </c>
+      <c r="G32" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="18" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F24" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F25" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F29" t="s">
+      <c r="H33">
+        <v>5800</v>
+      </c>
+    </row>
+    <row r="34" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H34">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="35" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H35">
+        <v>18200</v>
+      </c>
+    </row>
+    <row r="36" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F36" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F37" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H37">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="38" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F38" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H38">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="39" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F39" t="s">
+        <v>57</v>
+      </c>
+      <c r="G39" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F42" t="s">
+        <v>58</v>
+      </c>
+      <c r="H42">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="43" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F43" t="s">
+        <v>103</v>
+      </c>
+      <c r="H43">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="44" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F44" t="s">
+        <v>104</v>
+      </c>
+      <c r="G44" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="30" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F30" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F32" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F33" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F34" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G34" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F35" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F37" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.25">
-      <c r="F38" t="s">
-        <v>72</v>
-      </c>
-      <c r="G38" t="s">
-        <v>71</v>
+      <c r="H44">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="45" spans="6:8" x14ac:dyDescent="0.25">
+      <c r="F45" t="s">
+        <v>105</v>
+      </c>
+      <c r="H45">
+        <v>15000</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="F1:G1"/>
+    <mergeCell ref="P15:S15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
